--- a/biology/Zoologie/Cavilucina/Cavilucina.xlsx
+++ b/biology/Zoologie/Cavilucina/Cavilucina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cavilucina est un genre fossile de mollusques bivalves de la famille des Lucinidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un taxon avec des espèces actuelles mais[réf. nécessaire] il existe des spécimens fossiles dont les plus anciens datent du Jurassique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un taxon avec des espèces actuelles mais[réf. nécessaire] il existe des spécimens fossiles dont les plus anciens datent du Jurassique.
 </t>
         </is>
       </c>
@@ -542,19 +556,21 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 octobre 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 octobre 2019) :
 Cavilucina citrina (Angas, 1879)
 Cavilucina fieldingi (H. Adams, 1871)
-Selon Paleobiology Database                   (29 octobre 2019)[4], le genre appartient à la sous-famille des Lucininae et comprend les sous-genres et espèces suivants :
+Selon Paleobiology Database                   (29 octobre 2019), le genre appartient à la sous-famille des Lucininae et comprend les sous-genres et espèces suivants :
 Cavilucina (Cavilucina)
 †Cavilucina (Cavilucina) sulcata Lamarck 1806
 Cavilucina (Mesomiltha)
 Cavilucina (Mesomiltha) bellona
 Cavilucina (Mesomiltha) orbignyana
 Cavilucina (Mesomiltha) subgeometrica
-Selon World Register of Marine Species                               (29 octobre 2019)[5]:
+Selon World Register of Marine Species                               (29 octobre 2019):
 Cavilucina citrina (Angas, 1879)
 Cavilucina fieldingi (H. Adams, 1871)
 Cavilucina sulcata (Lamarck, 1806) †
